--- a/Assets/Excel/StageWaveSO.xlsx
+++ b/Assets/Excel/StageWaveSO.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY_PROJECT\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511A6A59-17BE-49D6-B1F6-FA86D52D9E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7F8C24-6A63-4338-ABFF-7F6CDA8F5082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="3675" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stageWaveData" sheetId="1" r:id="rId1"/>
-    <sheet name="stageWaveData (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="stageWaveData2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I477" sqref="I477"/>
     </sheetView>
   </sheetViews>
